--- a/data_selection/data/地区生产总值-北京先行性指标筛选结果_自定义相关系数.xlsx
+++ b/data_selection/data/地区生产总值-北京先行性指标筛选结果_自定义相关系数.xlsx
@@ -8,30 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meron/Desktop/Pingan/01_Code/data_selection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740C089-48F0-4148-9E03-E1EC1CFBB1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D9AD3-3A0B-984F-8835-1E8D91B8345A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="8440" windowWidth="13300" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="8440" windowWidth="13300" windowHeight="9180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="10" r:id="rId1"/>
     <sheet name="v3" sheetId="8" r:id="rId2"/>
-    <sheet name="v4" sheetId="7" r:id="rId3"/>
-    <sheet name="v5" sheetId="6" r:id="rId4"/>
-    <sheet name="先行指标 (2)" sheetId="5" r:id="rId5"/>
-    <sheet name="先行指标" sheetId="1" r:id="rId6"/>
-    <sheet name="不平稳指标" sheetId="2" r:id="rId7"/>
-    <sheet name="原始数据" sheetId="3" r:id="rId8"/>
-    <sheet name="指标测试集对应结果" sheetId="4" r:id="rId9"/>
+    <sheet name="v5" sheetId="6" r:id="rId3"/>
+    <sheet name="先行指标 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="先行指标" sheetId="1" r:id="rId5"/>
+    <sheet name="不平稳指标" sheetId="2" r:id="rId6"/>
+    <sheet name="原始数据" sheetId="3" r:id="rId7"/>
+    <sheet name="指标测试集对应结果" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'先行指标 (2)'!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'先行指标 (2)'!$A$1:$G$210</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="490">
   <si>
     <t>地区</t>
   </si>
@@ -1543,6 +1542,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2078,312 +2078,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
@@ -2496,17 +2190,17 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <v>0.75</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2515,17 +2209,17 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>0.75</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2534,7 +2228,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2553,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2572,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -2591,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -2601,7 +2295,7 @@
         <v>0.75</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2610,17 +2304,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0.75</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2629,14 +2323,14 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>0.75</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -2648,14 +2342,14 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>329</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2667,54 +2361,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.7</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2724,11 +2380,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3239,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G210"/>
@@ -6900,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
@@ -10492,7 +10148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10505,7 +10161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:KD23"/>
   <sheetViews>
@@ -24649,7 +24305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
